--- a/src/test/resources/testdata/RegisterData.xlsx
+++ b/src/test/resources/testdata/RegisterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DURJOY\Desktop\selenium class\workspace\Selenium Automation Framework\com.automation.webshop\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29EDED-A051-444C-842E-81E56904BBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A5A9E-C2B3-45CF-89AD-3239ED88855A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
-    <t>gender-male</t>
-  </si>
-  <si>
     <t>Harish</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Dec@123</t>
   </si>
   <si>
-    <t>gender-female</t>
-  </si>
-  <si>
     <t>Seema</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>pass@123</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,42 +404,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
